--- a/pytorch/results/accuracy_new_cifar10.xlsx
+++ b/pytorch/results/accuracy_new_cifar10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\ETUDES\4-University of Toronto\FALL\2-Intro to machine learning\Project\Code\pytorch\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\ETUDES\4-University of Toronto\FALL\2-Intro to machine learning\Project\Code\git_ml_project_2515\pytorch\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="20">
   <si>
     <t>Acc</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>LR = 0.04</t>
+  </si>
+  <si>
+    <t>ADAM</t>
   </si>
 </sst>
 </file>
@@ -445,16 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -465,6 +459,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,91 +810,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="57" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="55" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="57" t="s">
+      <c r="M2" s="53"/>
+      <c r="N2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="55" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55" t="s">
+      <c r="S2" s="53"/>
+      <c r="T2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55" t="s">
+      <c r="U2" s="53"/>
+      <c r="V2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="55"/>
+      <c r="W2" s="53"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2089,91 +2092,91 @@
       <c r="W24" s="34"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57" t="s">
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="56" t="s">
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56" t="s">
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55" t="s">
+      <c r="E26" s="53"/>
+      <c r="F26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55" t="s">
+      <c r="I26" s="53"/>
+      <c r="J26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55" t="s">
+      <c r="K26" s="53"/>
+      <c r="L26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="55"/>
-      <c r="N26" s="57" t="s">
+      <c r="M26" s="53"/>
+      <c r="N26" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="58"/>
-      <c r="P26" s="55" t="s">
+      <c r="O26" s="55"/>
+      <c r="P26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55" t="s">
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55" t="s">
+      <c r="S26" s="53"/>
+      <c r="T26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55" t="s">
+      <c r="U26" s="53"/>
+      <c r="V26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="W26" s="55"/>
+      <c r="W26" s="53"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
@@ -3688,91 +3691,91 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="57" t="s">
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="55" t="s">
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55" t="s">
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55" t="s">
+      <c r="E50" s="53"/>
+      <c r="F50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55" t="s">
+      <c r="G50" s="53"/>
+      <c r="H50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55" t="s">
+      <c r="I50" s="53"/>
+      <c r="J50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55" t="s">
+      <c r="K50" s="53"/>
+      <c r="L50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="55"/>
-      <c r="N50" s="57" t="s">
+      <c r="M50" s="53"/>
+      <c r="N50" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O50" s="58"/>
-      <c r="P50" s="55" t="s">
+      <c r="O50" s="55"/>
+      <c r="P50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55" t="s">
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55" t="s">
+      <c r="S50" s="53"/>
+      <c r="T50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55" t="s">
+      <c r="U50" s="53"/>
+      <c r="V50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="W50" s="55"/>
+      <c r="W50" s="53"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="6" t="s">
         <v>0</v>
       </c>
@@ -4867,19 +4870,28 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="F49:I49"/>
@@ -4896,28 +4908,19 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="J49:O49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4940,85 +4943,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="57" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="55" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55" t="s">
+      <c r="M2" s="53"/>
+      <c r="N2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55" t="s">
+      <c r="S2" s="53"/>
+      <c r="T2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="55"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
@@ -5604,85 +5607,85 @@
       <c r="U24" s="34"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57" t="s">
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="56" t="s">
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56" t="s">
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55" t="s">
+      <c r="E26" s="53"/>
+      <c r="F26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55" t="s">
+      <c r="I26" s="53"/>
+      <c r="J26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55" t="s">
+      <c r="K26" s="53"/>
+      <c r="L26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55" t="s">
+      <c r="M26" s="53"/>
+      <c r="N26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55" t="s">
+      <c r="O26" s="53"/>
+      <c r="P26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55" t="s">
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55" t="s">
+      <c r="S26" s="53"/>
+      <c r="T26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="U26" s="55"/>
+      <c r="U26" s="53"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="39" t="s">
         <v>0</v>
       </c>
@@ -6747,85 +6750,85 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="57" t="s">
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="55" t="s">
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55" t="s">
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55" t="s">
+      <c r="E50" s="53"/>
+      <c r="F50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55" t="s">
+      <c r="G50" s="53"/>
+      <c r="H50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55" t="s">
+      <c r="I50" s="53"/>
+      <c r="J50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55" t="s">
+      <c r="K50" s="53"/>
+      <c r="L50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55" t="s">
+      <c r="M50" s="53"/>
+      <c r="N50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55" t="s">
+      <c r="O50" s="53"/>
+      <c r="P50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55" t="s">
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55" t="s">
+      <c r="S50" s="53"/>
+      <c r="T50" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="U50" s="55"/>
+      <c r="U50" s="53"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="39" t="s">
         <v>0</v>
       </c>
@@ -7389,6 +7392,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
     <mergeCell ref="R49:U49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -7405,38 +7440,6 @@
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7445,10 +7448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24A2A00-6ACD-4EA5-8AD9-28FDEEEC4283}">
-  <dimension ref="A1:CC35"/>
+  <dimension ref="A1:CC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7473,64 +7476,64 @@
       <c r="S1" s="40"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="57" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="55" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="57" t="s">
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="55" t="s">
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
       <c r="AU2" s="40"/>
       <c r="AV2" s="40"/>
       <c r="AW2" s="40"/>
@@ -7568,72 +7571,72 @@
       <c r="CC2" s="40"/>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="57" t="s">
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="55" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55" t="s">
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55" t="s">
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="57" t="s">
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="55" t="s">
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55" t="s">
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
       <c r="AU3" s="40"/>
       <c r="AV3" s="40"/>
       <c r="AW3" s="40"/>
@@ -7671,91 +7674,91 @@
       <c r="CC3" s="40"/>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="45"/>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55" t="s">
+      <c r="N4" s="53"/>
+      <c r="O4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55" t="s">
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="55"/>
+      <c r="R4" s="53"/>
       <c r="S4" s="45"/>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55" t="s">
+      <c r="U4" s="53"/>
+      <c r="V4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55" t="s">
+      <c r="W4" s="53"/>
+      <c r="X4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="57" t="s">
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="58"/>
+      <c r="AA4" s="55"/>
       <c r="AB4" s="50"/>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55" t="s">
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55" t="s">
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55" t="s">
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="55"/>
+      <c r="AJ4" s="53"/>
       <c r="AK4" s="45"/>
-      <c r="AL4" s="55" t="s">
+      <c r="AL4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55" t="s">
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55" t="s">
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="57" t="s">
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AS4" s="58"/>
+      <c r="AS4" s="55"/>
       <c r="AT4" s="50"/>
       <c r="AU4" s="40"/>
       <c r="AV4" s="40"/>
@@ -7794,7 +7797,7 @@
       <c r="CC4" s="40"/>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="44" t="s">
         <v>0</v>
       </c>
@@ -11056,8 +11059,47 @@
       <c r="CB35" s="40"/>
       <c r="CC35" s="40"/>
     </row>
+    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>63.3</v>
+      </c>
+      <c r="L37">
+        <v>1.06</v>
+      </c>
+      <c r="M37">
+        <v>59.5</v>
+      </c>
+      <c r="N37">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AP3:AT3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AC2:AK2"/>
     <mergeCell ref="AR4:AS4"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="T2:AB2"/>
@@ -11074,26 +11116,6 @@
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AT3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11103,8 +11125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E64431-F4B3-4052-B279-FB61F155472D}">
   <dimension ref="A1:CD70"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11197,64 +11219,64 @@
       <c r="CD1" s="40"/>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="57" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="57" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="55" t="s">
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55" t="s">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
       <c r="AU2" s="22"/>
       <c r="AV2" s="40"/>
       <c r="AW2" s="40"/>
@@ -11293,72 +11315,72 @@
       <c r="CD2" s="40"/>
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="57" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="57" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="57" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="57" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="57" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="57" t="s">
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="57" t="s">
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="55" t="s">
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
       <c r="AU3" s="22"/>
       <c r="AV3" s="40"/>
       <c r="AW3" s="40"/>
@@ -11397,91 +11419,91 @@
       <c r="CD3" s="40"/>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="58"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55" t="s">
+      <c r="N4" s="53"/>
+      <c r="O4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="57" t="s">
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="58"/>
+      <c r="R4" s="55"/>
       <c r="S4" s="47"/>
-      <c r="T4" s="57" t="s">
+      <c r="T4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="58"/>
-      <c r="V4" s="57" t="s">
+      <c r="U4" s="55"/>
+      <c r="V4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="57" t="s">
+      <c r="W4" s="55"/>
+      <c r="X4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="57" t="s">
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="58"/>
+      <c r="AA4" s="55"/>
       <c r="AB4" s="46"/>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55" t="s">
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55" t="s">
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="57" t="s">
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="58"/>
+      <c r="AJ4" s="55"/>
       <c r="AK4" s="46"/>
-      <c r="AL4" s="55" t="s">
+      <c r="AL4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55" t="s">
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55" t="s">
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55" t="s">
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AS4" s="55"/>
+      <c r="AS4" s="53"/>
       <c r="AT4" s="50"/>
       <c r="AU4" s="22"/>
       <c r="AV4" s="40"/>
@@ -11521,7 +11543,7 @@
       <c r="CD4" s="40"/>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="37" t="s">
         <v>0</v>
       </c>
@@ -15169,59 +15191,59 @@
       <c r="CD36" s="40"/>
     </row>
     <row r="37" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="58"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="55"/>
     </row>
     <row r="38" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="57" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="57" t="s">
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="58"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="55"/>
     </row>
     <row r="39" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="57" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="57" t="s">
+      <c r="E39" s="55"/>
+      <c r="F39" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="58"/>
-      <c r="H39" s="57" t="s">
+      <c r="G39" s="55"/>
+      <c r="H39" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="58"/>
+      <c r="I39" s="55"/>
       <c r="J39" s="52"/>
     </row>
     <row r="40" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="37" t="s">
         <v>0</v>
       </c>
@@ -15942,14 +15964,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AT3"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="X3:AB3"/>
@@ -15966,26 +16000,14 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AT3"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/pytorch/results/accuracy_new_cifar10.xlsx
+++ b/pytorch/results/accuracy_new_cifar10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" firstSheet="2" activeTab="2" xr2:uid="{668C12C0-DCC9-46A1-B28E-EC69E29D7289}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" xr2:uid="{668C12C0-DCC9-46A1-B28E-EC69E29D7289}"/>
   </bookViews>
   <sheets>
     <sheet name="Small CNN" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -459,15 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE64FF39-D6F3-4BB5-A672-2196161B8717}">
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,91 +810,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="53" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53" t="s">
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="53" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53" t="s">
+      <c r="U2" s="55"/>
+      <c r="V2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="53"/>
+      <c r="W2" s="55"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2092,91 +2092,91 @@
       <c r="W24" s="34"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="54" t="s">
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="58" t="s">
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58" t="s">
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53" t="s">
+      <c r="E26" s="55"/>
+      <c r="F26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53" t="s">
+      <c r="G26" s="55"/>
+      <c r="H26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53" t="s">
+      <c r="I26" s="55"/>
+      <c r="J26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53" t="s">
+      <c r="K26" s="55"/>
+      <c r="L26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="53"/>
-      <c r="N26" s="54" t="s">
+      <c r="M26" s="55"/>
+      <c r="N26" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="53" t="s">
+      <c r="O26" s="58"/>
+      <c r="P26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53" t="s">
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53" t="s">
+      <c r="S26" s="55"/>
+      <c r="T26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53" t="s">
+      <c r="U26" s="55"/>
+      <c r="V26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="W26" s="53"/>
+      <c r="W26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
@@ -3691,91 +3691,91 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54" t="s">
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="53" t="s">
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53" t="s">
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="57"/>
-      <c r="B50" s="53" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53" t="s">
+      <c r="C50" s="55"/>
+      <c r="D50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53" t="s">
+      <c r="E50" s="55"/>
+      <c r="F50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53" t="s">
+      <c r="G50" s="55"/>
+      <c r="H50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53" t="s">
+      <c r="I50" s="55"/>
+      <c r="J50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53" t="s">
+      <c r="K50" s="55"/>
+      <c r="L50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="53"/>
-      <c r="N50" s="54" t="s">
+      <c r="M50" s="55"/>
+      <c r="N50" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="O50" s="55"/>
-      <c r="P50" s="53" t="s">
+      <c r="O50" s="58"/>
+      <c r="P50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53" t="s">
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53" t="s">
+      <c r="S50" s="55"/>
+      <c r="T50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53" t="s">
+      <c r="U50" s="55"/>
+      <c r="V50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="W50" s="53"/>
+      <c r="W50" s="55"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="6" t="s">
         <v>0</v>
       </c>
@@ -4870,28 +4870,19 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="J49:O49"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="F49:I49"/>
@@ -4908,19 +4899,28 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4943,85 +4943,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="53"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
@@ -5607,85 +5607,85 @@
       <c r="U24" s="34"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="54" t="s">
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="58" t="s">
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58" t="s">
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53" t="s">
+      <c r="E26" s="55"/>
+      <c r="F26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53" t="s">
+      <c r="G26" s="55"/>
+      <c r="H26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53" t="s">
+      <c r="I26" s="55"/>
+      <c r="J26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53" t="s">
+      <c r="K26" s="55"/>
+      <c r="L26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53" t="s">
+      <c r="M26" s="55"/>
+      <c r="N26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53" t="s">
+      <c r="O26" s="55"/>
+      <c r="P26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53" t="s">
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53" t="s">
+      <c r="S26" s="55"/>
+      <c r="T26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="U26" s="53"/>
+      <c r="U26" s="55"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="39" t="s">
         <v>0</v>
       </c>
@@ -6750,85 +6750,85 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54" t="s">
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="53" t="s">
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53" t="s">
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="57"/>
-      <c r="B50" s="53" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53" t="s">
+      <c r="C50" s="55"/>
+      <c r="D50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53" t="s">
+      <c r="E50" s="55"/>
+      <c r="F50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53" t="s">
+      <c r="G50" s="55"/>
+      <c r="H50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53" t="s">
+      <c r="I50" s="55"/>
+      <c r="J50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53" t="s">
+      <c r="K50" s="55"/>
+      <c r="L50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53" t="s">
+      <c r="M50" s="55"/>
+      <c r="N50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53" t="s">
+      <c r="O50" s="55"/>
+      <c r="P50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53" t="s">
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53" t="s">
+      <c r="S50" s="55"/>
+      <c r="T50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="U50" s="53"/>
+      <c r="U50" s="55"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="39" t="s">
         <v>0</v>
       </c>
@@ -7392,38 +7392,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
     <mergeCell ref="R49:U49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -7440,6 +7408,38 @@
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7450,7 +7450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24A2A00-6ACD-4EA5-8AD9-28FDEEEC4283}">
   <dimension ref="A1:CC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
@@ -7476,64 +7476,64 @@
       <c r="S1" s="40"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="54" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="53" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="54" t="s">
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="53" t="s">
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
       <c r="AU2" s="40"/>
       <c r="AV2" s="40"/>
       <c r="AW2" s="40"/>
@@ -7571,72 +7571,72 @@
       <c r="CC2" s="40"/>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="53" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="53" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53" t="s">
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53" t="s">
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="54" t="s">
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="53" t="s">
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53" t="s">
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
       <c r="AU3" s="40"/>
       <c r="AV3" s="40"/>
       <c r="AW3" s="40"/>
@@ -7674,91 +7674,91 @@
       <c r="CC3" s="40"/>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="53"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="45"/>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53" t="s">
+      <c r="N4" s="55"/>
+      <c r="O4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53" t="s">
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="53"/>
+      <c r="R4" s="55"/>
       <c r="S4" s="45"/>
-      <c r="T4" s="53" t="s">
+      <c r="T4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53" t="s">
+      <c r="U4" s="55"/>
+      <c r="V4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53" t="s">
+      <c r="W4" s="55"/>
+      <c r="X4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="54" t="s">
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="55"/>
+      <c r="AA4" s="58"/>
       <c r="AB4" s="50"/>
-      <c r="AC4" s="53" t="s">
+      <c r="AC4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53" t="s">
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53" t="s">
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53" t="s">
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="53"/>
+      <c r="AJ4" s="55"/>
       <c r="AK4" s="45"/>
-      <c r="AL4" s="53" t="s">
+      <c r="AL4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53" t="s">
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53" t="s">
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="54" t="s">
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AS4" s="55"/>
+      <c r="AS4" s="58"/>
       <c r="AT4" s="50"/>
       <c r="AU4" s="40"/>
       <c r="AV4" s="40"/>
@@ -7797,7 +7797,7 @@
       <c r="CC4" s="40"/>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="44" t="s">
         <v>0</v>
       </c>
@@ -11080,26 +11080,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AP3:AT3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AC2:AK2"/>
     <mergeCell ref="AR4:AS4"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="T2:AB2"/>
@@ -11116,6 +11096,26 @@
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AT3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11219,64 +11219,64 @@
       <c r="CD1" s="40"/>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="54" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="54" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="53" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53" t="s">
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
       <c r="AU2" s="22"/>
       <c r="AV2" s="40"/>
       <c r="AW2" s="40"/>
@@ -11315,72 +11315,72 @@
       <c r="CD2" s="40"/>
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="54" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="54" t="s">
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="54" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="54" t="s">
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="54" t="s">
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="54" t="s">
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="54" t="s">
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="53" t="s">
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
       <c r="AU3" s="22"/>
       <c r="AV3" s="40"/>
       <c r="AW3" s="40"/>
@@ -11419,91 +11419,91 @@
       <c r="CD3" s="40"/>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53" t="s">
+      <c r="N4" s="55"/>
+      <c r="O4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54" t="s">
+      <c r="P4" s="55"/>
+      <c r="Q4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="55"/>
+      <c r="R4" s="58"/>
       <c r="S4" s="47"/>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="55"/>
-      <c r="V4" s="54" t="s">
+      <c r="U4" s="58"/>
+      <c r="V4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="55"/>
-      <c r="X4" s="54" t="s">
+      <c r="W4" s="58"/>
+      <c r="X4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="54" t="s">
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="55"/>
+      <c r="AA4" s="58"/>
       <c r="AB4" s="46"/>
-      <c r="AC4" s="53" t="s">
+      <c r="AC4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53" t="s">
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53" t="s">
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="54" t="s">
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="55"/>
+      <c r="AJ4" s="58"/>
       <c r="AK4" s="46"/>
-      <c r="AL4" s="53" t="s">
+      <c r="AL4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53" t="s">
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53" t="s">
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53" t="s">
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AS4" s="53"/>
+      <c r="AS4" s="55"/>
       <c r="AT4" s="50"/>
       <c r="AU4" s="22"/>
       <c r="AV4" s="40"/>
@@ -11543,7 +11543,7 @@
       <c r="CD4" s="40"/>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="37" t="s">
         <v>0</v>
       </c>
@@ -15191,59 +15191,59 @@
       <c r="CD36" s="40"/>
     </row>
     <row r="37" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="55"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="54"/>
+      <c r="B38" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="54" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="55"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="58"/>
     </row>
     <row r="39" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A39" s="57"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="54" t="s">
+      <c r="C39" s="58"/>
+      <c r="D39" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="54" t="s">
+      <c r="E39" s="58"/>
+      <c r="F39" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="54" t="s">
+      <c r="G39" s="58"/>
+      <c r="H39" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="55"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="52"/>
     </row>
     <row r="40" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="37" t="s">
         <v>0</v>
       </c>
@@ -15964,26 +15964,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AT3"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="X3:AB3"/>
@@ -16000,14 +15988,26 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AT3"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
